--- a/Custom Fields Library.xlsx
+++ b/Custom Fields Library.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamitra\Documents\Work\Netsuite\Projects\Clarivate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamitra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="331">
   <si>
     <t>Mandatory</t>
   </si>
@@ -5195,7 +5195,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -5449,9 +5449,7 @@
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
+      <c r="C14"/>
       <c r="D14" s="3" t="s">
         <v>51</v>
       </c>
